--- a/PSCAN Conversion.xlsx
+++ b/PSCAN Conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caleb/Development/JPM-SFQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4A1434-C499-5C45-AAC5-1687D9A882BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB0C979-9534-9340-BA0C-E398A8E88AD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="580" windowWidth="15520" windowHeight="9500" xr2:uid="{2F303FE1-8CBF-2940-AE79-DEDE95F99BE1}"/>
+    <workbookView xWindow="5420" yWindow="2260" windowWidth="28620" windowHeight="15740" activeTab="1" xr2:uid="{2F303FE1-8CBF-2940-AE79-DEDE95F99BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="SFQ Conversions" sheetId="1" r:id="rId1"/>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB345CE-7C49-8E4E-884F-BFB6F8130103}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,14 +1122,14 @@
         <v>5</v>
       </c>
       <c r="B5" s="10">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
         <f>Table2[[#This Row],[Quantity]]/J5/1000000000000</f>
-        <v>0.62224782027623926</v>
+        <v>0.3035355220859704</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1301,11 +1301,11 @@
         <v>5</v>
       </c>
       <c r="B16" s="9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C16">
         <f>Table24[[#This Row],[pscan unit]]*J5/0.000000000001</f>
-        <v>65.89014644004466</v>
+        <v>6.5890146440044672</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1381,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C8899A-65F5-FB45-9431-5BE6358E9CC0}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1482,24 +1482,24 @@
         <v>10000</v>
       </c>
       <c r="C8">
-        <v>0.28000000000000003</v>
+        <v>0.42</v>
       </c>
       <c r="D8">
         <f>Table5[Layer Cap(fF/μm^2)]*Table5[Area (μm^2)]</f>
-        <v>2800.0000000000005</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>SQRT(Table5[[#This Row],[Area (μm^2)]])</f>
-        <v>103.50983390135313</v>
+        <v>84.515425472851661</v>
       </c>
       <c r="B9">
         <f>Table5[[#This Row],[Capactiance (fF)]]/Table5[[#This Row],[Layer Cap(fF/μm^2)]]</f>
-        <v>10714.285714285714</v>
+        <v>7142.8571428571431</v>
       </c>
       <c r="C9">
-        <v>0.28000000000000003</v>
+        <v>0.42</v>
       </c>
       <c r="D9">
         <f>H12*1000</f>
